--- a/合并excle/合并结果.xlsx
+++ b/合并excle/合并结果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xp\project\pyProject\BrushEnLesson\gx\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xp\project\utils\合并excle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3E5D5C8-3F4A-45F8-B65F-D5BDAFED60D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{949C034F-CDB3-49B0-AD6F-FEB2635A3043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{1FA8C25F-6667-46E8-9BF4-3EA2BD9138F2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{124368F9-D803-44C4-9ACD-F8A562517C33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,30 +24,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>列1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,26 +36,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,13 +65,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,176 +382,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824BD8DF-30FB-43E6-8E8D-3D20B03F8D9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01A5EF-8C05-4B57-9094-55D56D1D7B72}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/合并excle/合并结果.xlsx
+++ b/合并excle/合并结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xp\project\utils\合并excle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{949C034F-CDB3-49B0-AD6F-FEB2635A3043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEED5CD-8C3E-40B1-B6D5-537B0C7D4E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{124368F9-D803-44C4-9ACD-F8A562517C33}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{296FEFE7-3EB0-4A80-9360-C3FBFFA8F766}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01A5EF-8C05-4B57-9094-55D56D1D7B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CDC126-C27B-4D65-84DC-FB4E4CFCDC41}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
